--- a/algo/Misc/sortAlgoTable.xlsx
+++ b/algo/Misc/sortAlgoTable.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoges\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8022C93F-4B75-44FD-91C0-38435CAEFDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E82FE03C-C998-4A9C-9A46-A0DBE9678F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{133F09EF-17A7-49DF-B8E3-7FD03E04039D}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20760" windowHeight="11820" xr2:uid="{133F09EF-17A7-49DF-B8E3-7FD03E04039D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Sr. No</t>
   </si>
@@ -42,9 +38,6 @@
     <t>Best</t>
   </si>
   <si>
-    <t>Avarage</t>
-  </si>
-  <si>
     <t>Worst</t>
   </si>
   <si>
@@ -55,14 +48,220 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>n log n</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>log n</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>Insert + Merge</t>
+  </si>
+  <si>
+    <t>Merging</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>this hybrid sort is faster for ordered data</t>
+  </si>
+  <si>
+    <t>Use when we have less space but take more time than merge sort</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Without viewing worst case scenario , this is best fastest algorithm among others where input is less and also used in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays.sort()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method for primitive type data only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use where we need large data sets sort problem and used in  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collections.sort()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for compare  object refrences</t>
+    </r>
+  </si>
+  <si>
+    <t>Exchanging</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,16 +286,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,68 +619,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2019153C-0831-408A-BBD2-06210E51DCCC}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="90.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>